--- a/document/Energy readings.xlsx
+++ b/document/Energy readings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\un_ch\OneDrive\Desktop\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\un_ch\OneDrive\Desktop\makarigad-site\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC1C233-4DD3-41A0-9E17-ABAA38653873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6BB854-0140-486F-B8DB-1124CFBEFEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="895">
   <si>
     <t>Unit 1 Generator Reading</t>
   </si>
@@ -2571,9 +2571,6 @@
     <t>2082.02.31</t>
   </si>
   <si>
-    <t>2082.02.32</t>
-  </si>
-  <si>
     <t>2082.03.01</t>
   </si>
   <si>
@@ -2722,6 +2719,33 @@
   </si>
   <si>
     <t>2082.04.19</t>
+  </si>
+  <si>
+    <t>2082.04.20</t>
+  </si>
+  <si>
+    <t>2082.04.21</t>
+  </si>
+  <si>
+    <t>2082.04.22</t>
+  </si>
+  <si>
+    <t>2082.04.23</t>
+  </si>
+  <si>
+    <t>2082.04.24</t>
+  </si>
+  <si>
+    <t>2082.04.25</t>
+  </si>
+  <si>
+    <t>2082.04.26</t>
+  </si>
+  <si>
+    <t>2082.04.27</t>
+  </si>
+  <si>
+    <t>2082.01.31</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2760,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2761,6 +2785,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Garamond"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2906,7 +2949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2975,6 +3018,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3281,10 +3335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M876"/>
+  <dimension ref="A1:M884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
+      <selection activeCell="E871" sqref="E871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34623,7 +34677,7 @@
     </row>
     <row r="794" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A794" s="46" t="s">
-        <v>805</v>
+        <v>894</v>
       </c>
       <c r="B794" s="43">
         <v>45791</v>
@@ -34664,7 +34718,7 @@
     </row>
     <row r="795" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A795" s="46" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B795" s="43">
         <v>45792</v>
@@ -34705,7 +34759,7 @@
     </row>
     <row r="796" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A796" s="46" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B796" s="43">
         <v>45793</v>
@@ -34746,7 +34800,7 @@
     </row>
     <row r="797" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A797" s="46" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B797" s="43">
         <v>45794</v>
@@ -34787,7 +34841,7 @@
     </row>
     <row r="798" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A798" s="46" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B798" s="43">
         <v>45795</v>
@@ -34828,7 +34882,7 @@
     </row>
     <row r="799" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A799" s="46" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B799" s="43">
         <v>45796</v>
@@ -34869,7 +34923,7 @@
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A800" s="46" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B800" s="43">
         <v>45797</v>
@@ -34910,7 +34964,7 @@
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B801" s="43">
         <v>45798</v>
@@ -34951,7 +35005,7 @@
     </row>
     <row r="802" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A802" s="46" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B802" s="43">
         <v>45799</v>
@@ -34992,7 +35046,7 @@
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="46" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B803" s="43">
         <v>45800</v>
@@ -35033,7 +35087,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="46" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B804" s="43">
         <v>45801</v>
@@ -35074,7 +35128,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="46" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B805" s="43">
         <v>45802</v>
@@ -35115,7 +35169,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="46" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B806" s="43">
         <v>45803</v>
@@ -35156,7 +35210,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="46" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B807" s="43">
         <v>45804</v>
@@ -35197,7 +35251,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="46" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B808" s="43">
         <v>45805</v>
@@ -35238,7 +35292,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="46" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B809" s="43">
         <v>45806</v>
@@ -35279,7 +35333,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B810" s="43">
         <v>45807</v>
@@ -35320,7 +35374,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="46" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B811" s="43">
         <v>45808</v>
@@ -35361,7 +35415,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B812" s="43">
         <v>45809</v>
@@ -35402,7 +35456,7 @@
     </row>
     <row r="813" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A813" s="46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B813" s="43">
         <v>45810</v>
@@ -35443,7 +35497,7 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B814" s="43">
         <v>45811</v>
@@ -35484,7 +35538,7 @@
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B815" s="43">
         <v>45812</v>
@@ -35525,7 +35579,7 @@
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="46" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B816" s="43">
         <v>45813</v>
@@ -35566,7 +35620,7 @@
     </row>
     <row r="817" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A817" s="46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B817" s="43">
         <v>45814</v>
@@ -35607,7 +35661,7 @@
     </row>
     <row r="818" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A818" s="46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B818" s="43">
         <v>45815</v>
@@ -35648,7 +35702,7 @@
     </row>
     <row r="819" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A819" s="46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B819" s="43">
         <v>45816</v>
@@ -35689,7 +35743,7 @@
     </row>
     <row r="820" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A820" s="46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B820" s="43">
         <v>45817</v>
@@ -35730,7 +35784,7 @@
     </row>
     <row r="821" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A821" s="46" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B821" s="43">
         <v>45818</v>
@@ -35771,7 +35825,7 @@
     </row>
     <row r="822" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A822" s="46" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B822" s="43">
         <v>45819</v>
@@ -35812,7 +35866,7 @@
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A823" s="46" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B823" s="43">
         <v>45820</v>
@@ -35853,7 +35907,7 @@
     </row>
     <row r="824" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A824" s="46" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B824" s="43">
         <v>45821</v>
@@ -35894,7 +35948,7 @@
     </row>
     <row r="825" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A825" s="46" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B825" s="43">
         <v>45822</v>
@@ -35935,7 +35989,7 @@
     </row>
     <row r="826" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A826" s="46" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B826" s="43">
         <v>45823</v>
@@ -35976,7 +36030,7 @@
     </row>
     <row r="827" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A827" s="46" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B827" s="43">
         <v>45824</v>
@@ -36017,7 +36071,7 @@
     </row>
     <row r="828" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A828" s="46" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B828" s="43">
         <v>45825</v>
@@ -36058,7 +36112,7 @@
     </row>
     <row r="829" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A829" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B829" s="43">
         <v>45826</v>
@@ -36099,7 +36153,7 @@
     </row>
     <row r="830" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A830" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B830" s="43">
         <v>45827</v>
@@ -36140,7 +36194,7 @@
     </row>
     <row r="831" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A831" s="46" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B831" s="43">
         <v>45828</v>
@@ -36181,7 +36235,7 @@
     </row>
     <row r="832" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A832" s="46" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B832" s="43">
         <v>45829</v>
@@ -36222,7 +36276,7 @@
     </row>
     <row r="833" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A833" s="46" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B833" s="43">
         <v>45830</v>
@@ -36263,7 +36317,7 @@
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A834" s="46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B834" s="43">
         <v>45831</v>
@@ -36304,7 +36358,7 @@
     </row>
     <row r="835" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A835" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B835" s="43">
         <v>45832</v>
@@ -36345,7 +36399,7 @@
     </row>
     <row r="836" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A836" s="46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B836" s="43">
         <v>45833</v>
@@ -36386,7 +36440,7 @@
     </row>
     <row r="837" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A837" s="46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B837" s="43">
         <v>45834</v>
@@ -36427,7 +36481,7 @@
     </row>
     <row r="838" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A838" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B838" s="43">
         <v>45835</v>
@@ -36468,7 +36522,7 @@
     </row>
     <row r="839" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A839" s="46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B839" s="43">
         <v>45836</v>
@@ -36509,7 +36563,7 @@
     </row>
     <row r="840" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A840" s="46" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B840" s="43">
         <v>45837</v>
@@ -36550,7 +36604,7 @@
     </row>
     <row r="841" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A841" s="46" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B841" s="43">
         <v>45838</v>
@@ -36591,7 +36645,7 @@
     </row>
     <row r="842" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A842" s="46" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B842" s="43">
         <v>45839</v>
@@ -36632,7 +36686,7 @@
     </row>
     <row r="843" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A843" s="46" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B843" s="43">
         <v>45840</v>
@@ -36673,7 +36727,7 @@
     </row>
     <row r="844" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A844" s="46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B844" s="43">
         <v>45841</v>
@@ -36714,7 +36768,7 @@
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A845" s="46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B845" s="43">
         <v>45842</v>
@@ -36755,7 +36809,7 @@
     </row>
     <row r="846" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A846" s="46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B846" s="43">
         <v>45843</v>
@@ -36796,7 +36850,7 @@
     </row>
     <row r="847" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A847" s="46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B847" s="43">
         <v>45844</v>
@@ -36837,7 +36891,7 @@
     </row>
     <row r="848" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A848" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B848" s="43">
         <v>45845</v>
@@ -36878,7 +36932,7 @@
     </row>
     <row r="849" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A849" s="46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B849" s="43">
         <v>45846</v>
@@ -36919,7 +36973,7 @@
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A850" s="46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B850" s="43">
         <v>45847</v>
@@ -36960,7 +37014,7 @@
     </row>
     <row r="851" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A851" s="46" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B851" s="43">
         <v>45848</v>
@@ -37001,7 +37055,7 @@
     </row>
     <row r="852" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A852" s="46" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B852" s="43">
         <v>45849</v>
@@ -37042,7 +37096,7 @@
     </row>
     <row r="853" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A853" s="46" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B853" s="43">
         <v>45850</v>
@@ -37083,7 +37137,7 @@
     </row>
     <row r="854" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A854" s="46" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B854" s="43">
         <v>45851</v>
@@ -37124,7 +37178,7 @@
     </row>
     <row r="855" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A855" s="46" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B855" s="43">
         <v>45852</v>
@@ -37165,7 +37219,7 @@
     </row>
     <row r="856" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A856" s="46" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B856" s="43">
         <v>45853</v>
@@ -37245,50 +37299,50 @@
         <v>15112.6</v>
       </c>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A858" s="46" t="s">
-        <v>868</v>
-      </c>
-      <c r="B858" s="43">
+    <row r="858" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A858" s="48" t="s">
+        <v>867</v>
+      </c>
+      <c r="B858" s="49">
         <v>45855</v>
       </c>
-      <c r="C858" s="16">
+      <c r="C858" s="50">
         <v>72470</v>
       </c>
-      <c r="D858" s="36">
+      <c r="D858" s="51">
         <v>65056</v>
       </c>
-      <c r="E858" s="10">
+      <c r="E858" s="52">
         <v>22116.3</v>
       </c>
-      <c r="F858" s="10">
+      <c r="F858" s="52">
         <v>14823.6</v>
       </c>
-      <c r="G858" s="10">
+      <c r="G858" s="52">
         <v>47922</v>
       </c>
-      <c r="H858" s="10">
+      <c r="H858" s="52">
         <v>36880.1</v>
       </c>
-      <c r="I858" s="23">
+      <c r="I858" s="53">
         <v>132270.34</v>
       </c>
-      <c r="J858" s="10">
+      <c r="J858" s="52">
         <v>95.6</v>
       </c>
-      <c r="K858" s="11">
+      <c r="K858" s="54">
         <v>23.23</v>
       </c>
-      <c r="L858" s="15">
+      <c r="L858" s="55">
         <v>17025.8</v>
       </c>
-      <c r="M858" s="15">
+      <c r="M858" s="55">
         <v>15135.6</v>
       </c>
     </row>
     <row r="859" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A859" s="46" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B859" s="43">
         <v>45856</v>
@@ -37329,7 +37383,7 @@
     </row>
     <row r="860" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A860" s="46" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B860" s="43">
         <v>45857</v>
@@ -37370,7 +37424,7 @@
     </row>
     <row r="861" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A861" s="46" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B861" s="43">
         <v>45858</v>
@@ -37411,7 +37465,7 @@
     </row>
     <row r="862" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A862" s="46" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B862" s="43">
         <v>45859</v>
@@ -37452,7 +37506,7 @@
     </row>
     <row r="863" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A863" s="46" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B863" s="43">
         <v>45860</v>
@@ -37493,7 +37547,7 @@
     </row>
     <row r="864" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A864" s="46" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B864" s="43">
         <v>45861</v>
@@ -37534,7 +37588,7 @@
     </row>
     <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A865" s="46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B865" s="43">
         <v>45862</v>
@@ -37575,7 +37629,7 @@
     </row>
     <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A866" s="46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B866" s="43">
         <v>45863</v>
@@ -37616,7 +37670,7 @@
     </row>
     <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A867" s="46" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B867" s="43">
         <v>45864</v>
@@ -37657,7 +37711,7 @@
     </row>
     <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A868" s="46" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B868" s="43">
         <v>45865</v>
@@ -37698,7 +37752,7 @@
     </row>
     <row r="869" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A869" s="46" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B869" s="43">
         <v>45866</v>
@@ -37739,7 +37793,7 @@
     </row>
     <row r="870" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A870" s="46" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B870" s="43">
         <v>45867</v>
@@ -37780,7 +37834,7 @@
     </row>
     <row r="871" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A871" s="46" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B871" s="43">
         <v>45868</v>
@@ -37821,7 +37875,7 @@
     </row>
     <row r="872" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A872" s="46" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B872" s="43">
         <v>45869</v>
@@ -37862,7 +37916,7 @@
     </row>
     <row r="873" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A873" s="46" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B873" s="43">
         <v>45870</v>
@@ -37903,7 +37957,7 @@
     </row>
     <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874" s="46" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B874" s="43">
         <v>45871</v>
@@ -37944,7 +37998,7 @@
     </row>
     <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A875" s="46" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B875" s="43">
         <v>45872</v>
@@ -37985,7 +38039,7 @@
     </row>
     <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876" s="46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B876" s="43">
         <v>45873</v>
@@ -38024,7 +38078,336 @@
         <v>15566.4</v>
       </c>
     </row>
+    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A877" s="46" t="s">
+        <v>886</v>
+      </c>
+      <c r="B877" s="43">
+        <v>45874</v>
+      </c>
+      <c r="C877" s="16">
+        <v>74834</v>
+      </c>
+      <c r="D877" s="16">
+        <v>67420</v>
+      </c>
+      <c r="E877" s="10">
+        <v>24455.563999999998</v>
+      </c>
+      <c r="F877" s="10">
+        <v>17162.330999999998</v>
+      </c>
+      <c r="G877" s="10">
+        <v>51152.37</v>
+      </c>
+      <c r="H877" s="10">
+        <v>41552.400000000001</v>
+      </c>
+      <c r="I877" s="23">
+        <v>136769.54</v>
+      </c>
+      <c r="J877" s="10">
+        <v>105.76</v>
+      </c>
+      <c r="K877" s="11">
+        <v>23.24</v>
+      </c>
+      <c r="L877" s="15">
+        <v>17457.099999999999</v>
+      </c>
+      <c r="M877" s="15">
+        <v>15566.4</v>
+      </c>
+    </row>
+    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A878" s="46" t="s">
+        <v>887</v>
+      </c>
+      <c r="B878" s="43">
+        <v>45875</v>
+      </c>
+      <c r="C878" s="16">
+        <v>74959</v>
+      </c>
+      <c r="D878" s="16">
+        <v>67543</v>
+      </c>
+      <c r="E878" s="10">
+        <v>24578.566999999999</v>
+      </c>
+      <c r="F878" s="10">
+        <v>17284.706999999999</v>
+      </c>
+      <c r="G878" s="10">
+        <v>51325.74</v>
+      </c>
+      <c r="H878" s="10">
+        <v>41797.599999999999</v>
+      </c>
+      <c r="I878" s="23">
+        <v>137004.82999999999</v>
+      </c>
+      <c r="J878" s="10">
+        <v>105.58</v>
+      </c>
+      <c r="K878" s="11">
+        <v>23.25</v>
+      </c>
+      <c r="L878" s="15">
+        <v>17480.8</v>
+      </c>
+      <c r="M878" s="15">
+        <v>15590.1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A879" s="46" t="s">
+        <v>888</v>
+      </c>
+      <c r="B879" s="43">
+        <v>45876</v>
+      </c>
+      <c r="C879" s="16">
+        <v>75077</v>
+      </c>
+      <c r="D879" s="16">
+        <v>67662</v>
+      </c>
+      <c r="E879" s="10">
+        <v>24695.935000000001</v>
+      </c>
+      <c r="F879" s="10">
+        <v>17401.811000000002</v>
+      </c>
+      <c r="G879" s="10">
+        <v>51495.87</v>
+      </c>
+      <c r="H879" s="10">
+        <v>42031.8</v>
+      </c>
+      <c r="I879" s="23">
+        <v>137231.25</v>
+      </c>
+      <c r="J879" s="10">
+        <v>108.15</v>
+      </c>
+      <c r="K879" s="11">
+        <v>23.25</v>
+      </c>
+      <c r="L879" s="15">
+        <v>17504.5</v>
+      </c>
+      <c r="M879" s="15">
+        <v>15613.7</v>
+      </c>
+    </row>
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A880" s="46" t="s">
+        <v>889</v>
+      </c>
+      <c r="B880" s="43">
+        <v>45877</v>
+      </c>
+      <c r="C880" s="16">
+        <v>75203</v>
+      </c>
+      <c r="D880" s="16">
+        <v>67788</v>
+      </c>
+      <c r="E880" s="10">
+        <v>24820.474999999999</v>
+      </c>
+      <c r="F880" s="10">
+        <v>17526.538</v>
+      </c>
+      <c r="G880" s="10">
+        <v>51664.75</v>
+      </c>
+      <c r="H880" s="10">
+        <v>42280.9</v>
+      </c>
+      <c r="I880" s="23">
+        <v>137470.15</v>
+      </c>
+      <c r="J880" s="10">
+        <v>108.15</v>
+      </c>
+      <c r="K880" s="11">
+        <v>23.25</v>
+      </c>
+      <c r="L880" s="15">
+        <v>17528</v>
+      </c>
+      <c r="M880" s="15">
+        <v>15637.1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A881" s="46" t="s">
+        <v>890</v>
+      </c>
+      <c r="B881" s="43">
+        <v>45878</v>
+      </c>
+      <c r="C881" s="16">
+        <v>75327</v>
+      </c>
+      <c r="D881" s="16">
+        <v>67912</v>
+      </c>
+      <c r="E881" s="10">
+        <v>24943.046999999999</v>
+      </c>
+      <c r="F881" s="10">
+        <v>17649.669999999998</v>
+      </c>
+      <c r="G881" s="10">
+        <v>51838.720000000001</v>
+      </c>
+      <c r="H881" s="10">
+        <v>42526.2</v>
+      </c>
+      <c r="I881" s="23">
+        <v>137707.32999999999</v>
+      </c>
+      <c r="J881" s="10">
+        <v>108.15</v>
+      </c>
+      <c r="K881" s="11">
+        <v>23.25</v>
+      </c>
+      <c r="L881" s="15">
+        <v>17552</v>
+      </c>
+      <c r="M881" s="15">
+        <v>15661.1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A882" s="46" t="s">
+        <v>891</v>
+      </c>
+      <c r="B882" s="43">
+        <v>45879</v>
+      </c>
+      <c r="C882" s="16">
+        <v>75453</v>
+      </c>
+      <c r="D882" s="16">
+        <v>68038</v>
+      </c>
+      <c r="E882" s="10">
+        <v>25067.635999999999</v>
+      </c>
+      <c r="F882" s="10">
+        <v>17774.3</v>
+      </c>
+      <c r="G882" s="10">
+        <v>52013.03</v>
+      </c>
+      <c r="H882" s="10">
+        <v>42775</v>
+      </c>
+      <c r="I882" s="23">
+        <v>137946.54999999999</v>
+      </c>
+      <c r="J882" s="10">
+        <v>108.15</v>
+      </c>
+      <c r="K882" s="11">
+        <v>23.25</v>
+      </c>
+      <c r="L882" s="15">
+        <v>17576</v>
+      </c>
+      <c r="M882" s="15">
+        <v>15685.1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A883" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="B883" s="43">
+        <v>45880</v>
+      </c>
+      <c r="C883" s="16">
+        <v>75578</v>
+      </c>
+      <c r="D883" s="16">
+        <v>68163</v>
+      </c>
+      <c r="E883" s="10">
+        <v>25191.565999999999</v>
+      </c>
+      <c r="F883" s="10">
+        <v>17897.866000000002</v>
+      </c>
+      <c r="G883" s="10">
+        <v>52185.15</v>
+      </c>
+      <c r="H883" s="10">
+        <v>43022.9</v>
+      </c>
+      <c r="I883" s="23">
+        <v>138184.59</v>
+      </c>
+      <c r="J883" s="10">
+        <v>108.15</v>
+      </c>
+      <c r="K883" s="11">
+        <v>23.25</v>
+      </c>
+      <c r="L883" s="15">
+        <v>17600</v>
+      </c>
+      <c r="M883" s="15">
+        <v>15709.1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A884" s="46" t="s">
+        <v>893</v>
+      </c>
+      <c r="B884" s="43">
+        <v>45881</v>
+      </c>
+      <c r="C884" s="16">
+        <v>75704</v>
+      </c>
+      <c r="D884" s="16">
+        <v>68289</v>
+      </c>
+      <c r="E884" s="10">
+        <v>25316.101999999999</v>
+      </c>
+      <c r="F884" s="10">
+        <v>18022.59</v>
+      </c>
+      <c r="G884" s="10">
+        <v>52357.08</v>
+      </c>
+      <c r="H884" s="10">
+        <v>43271.199999999997</v>
+      </c>
+      <c r="I884" s="23">
+        <v>138424.35</v>
+      </c>
+      <c r="J884" s="10">
+        <v>108.15</v>
+      </c>
+      <c r="K884" s="11">
+        <v>23.25</v>
+      </c>
+      <c r="L884" s="15">
+        <v>17624</v>
+      </c>
+      <c r="M884" s="15">
+        <v>15733.1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/Energy readings.xlsx
+++ b/document/Energy readings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\un_ch\OneDrive\Desktop\makarigad-site\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6BB854-0140-486F-B8DB-1124CFBEFEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973E899-E75F-4FC5-8BC1-9C44434B65C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="900">
   <si>
     <t>Unit 1 Generator Reading</t>
   </si>
@@ -2746,6 +2746,21 @@
   </si>
   <si>
     <t>2082.01.31</t>
+  </si>
+  <si>
+    <t>2082.04.28</t>
+  </si>
+  <si>
+    <t>2082.04.29</t>
+  </si>
+  <si>
+    <t>2082.04.30</t>
+  </si>
+  <si>
+    <t>2082.04.31</t>
+  </si>
+  <si>
+    <t>2082.05.01</t>
   </si>
 </sst>
 </file>
@@ -3335,10 +3350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M884"/>
+  <dimension ref="A1:M889"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
-      <selection activeCell="E871" sqref="E871"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A871" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D896" sqref="D896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38400,10 +38416,215 @@
         <v>23.25</v>
       </c>
       <c r="L884" s="15">
-        <v>17624</v>
+        <v>17648</v>
       </c>
       <c r="M884" s="15">
-        <v>15733.1</v>
+        <v>15757.1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A885" s="46" t="s">
+        <v>895</v>
+      </c>
+      <c r="B885" s="43">
+        <v>45882</v>
+      </c>
+      <c r="C885" s="16">
+        <v>75821</v>
+      </c>
+      <c r="D885" s="16">
+        <v>68409</v>
+      </c>
+      <c r="E885" s="10">
+        <v>25432.357</v>
+      </c>
+      <c r="F885" s="10">
+        <v>18141.238000000001</v>
+      </c>
+      <c r="G885" s="10">
+        <v>52528.42</v>
+      </c>
+      <c r="H885" s="10">
+        <v>43505.9</v>
+      </c>
+      <c r="I885" s="23">
+        <v>138650.46</v>
+      </c>
+      <c r="J885" s="10">
+        <v>109.11</v>
+      </c>
+      <c r="K885" s="11">
+        <v>23.25</v>
+      </c>
+      <c r="L885" s="15">
+        <v>17670.599999999999</v>
+      </c>
+      <c r="M885" s="15">
+        <v>15780.3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A886" s="46" t="s">
+        <v>896</v>
+      </c>
+      <c r="B886" s="43">
+        <v>45883</v>
+      </c>
+      <c r="C886" s="16">
+        <v>75861</v>
+      </c>
+      <c r="D886" s="16">
+        <v>68449</v>
+      </c>
+      <c r="E886" s="10">
+        <v>25471.688999999998</v>
+      </c>
+      <c r="F886" s="10">
+        <v>18180.584999999999</v>
+      </c>
+      <c r="G886" s="10">
+        <v>52282.81</v>
+      </c>
+      <c r="H886" s="10">
+        <v>43584.5</v>
+      </c>
+      <c r="I886" s="23">
+        <v>138726.69</v>
+      </c>
+      <c r="J886" s="10">
+        <v>109.28</v>
+      </c>
+      <c r="K886" s="11">
+        <v>23.26</v>
+      </c>
+      <c r="L886" s="15">
+        <v>17678.8</v>
+      </c>
+      <c r="M886" s="15">
+        <v>15788.5</v>
+      </c>
+    </row>
+    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A887" s="46" t="s">
+        <v>897</v>
+      </c>
+      <c r="B887" s="43">
+        <v>45884</v>
+      </c>
+      <c r="C887" s="16">
+        <v>75945</v>
+      </c>
+      <c r="D887" s="16">
+        <v>68532</v>
+      </c>
+      <c r="E887" s="10">
+        <v>25606.022000000001</v>
+      </c>
+      <c r="F887" s="10">
+        <v>18263.544999999998</v>
+      </c>
+      <c r="G887" s="10">
+        <v>52716.98</v>
+      </c>
+      <c r="H887" s="10">
+        <v>43750.2</v>
+      </c>
+      <c r="I887" s="23">
+        <v>138885.39000000001</v>
+      </c>
+      <c r="J887" s="10">
+        <v>109.82</v>
+      </c>
+      <c r="K887" s="11">
+        <v>23.26</v>
+      </c>
+      <c r="L887" s="15">
+        <v>17694.8</v>
+      </c>
+      <c r="M887" s="15">
+        <v>15804.4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A888" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="B888" s="43">
+        <v>45885</v>
+      </c>
+      <c r="C888" s="16">
+        <v>76071</v>
+      </c>
+      <c r="D888" s="16">
+        <v>68658</v>
+      </c>
+      <c r="E888" s="10">
+        <v>25731.103999999999</v>
+      </c>
+      <c r="F888" s="10">
+        <v>18387.61</v>
+      </c>
+      <c r="G888" s="10">
+        <v>52888.24</v>
+      </c>
+      <c r="H888" s="10">
+        <v>43998.2</v>
+      </c>
+      <c r="I888" s="23">
+        <v>139124.6</v>
+      </c>
+      <c r="J888" s="10">
+        <v>109.82</v>
+      </c>
+      <c r="K888" s="11">
+        <v>23.26</v>
+      </c>
+      <c r="L888" s="15">
+        <v>17718.8</v>
+      </c>
+      <c r="M888" s="15">
+        <v>15828.4</v>
+      </c>
+    </row>
+    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A889" s="46" t="s">
+        <v>899</v>
+      </c>
+      <c r="B889" s="43">
+        <v>45886</v>
+      </c>
+      <c r="C889" s="16">
+        <v>76197</v>
+      </c>
+      <c r="D889" s="16">
+        <v>68783</v>
+      </c>
+      <c r="E889" s="10">
+        <v>25856.346000000001</v>
+      </c>
+      <c r="F889" s="10">
+        <v>18511.545999999998</v>
+      </c>
+      <c r="G889" s="10">
+        <v>53059.05</v>
+      </c>
+      <c r="H889" s="10">
+        <v>44246.9</v>
+      </c>
+      <c r="I889" s="23">
+        <v>139364.43</v>
+      </c>
+      <c r="J889" s="10">
+        <v>109.82</v>
+      </c>
+      <c r="K889" s="11">
+        <v>23.26</v>
+      </c>
+      <c r="L889" s="15">
+        <v>17742.8</v>
+      </c>
+      <c r="M889" s="15">
+        <v>15852.3</v>
       </c>
     </row>
   </sheetData>
